--- a/continew-webapi/src/main/resources/static/inventory_count_zh.xlsx
+++ b/continew-webapi/src/main/resources/static/inventory_count_zh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java\continew-admin\continew-webapi\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC70AD-875F-4146-895D-0B5BFE15D9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE1D4EA-D872-4339-915A-2CE4C97A9A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2950" yWindow="3570" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
